--- a/Ведомости/Ведомость за 13.11.25-20.11.25.xlsx
+++ b/Ведомости/Ведомость за 13.11.25-20.11.25.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="105">
   <si>
     <t>№ п/п</t>
   </si>
@@ -200,12 +200,6 @@
     <t>Главному админу сервера РНГ: Марфа</t>
   </si>
   <si>
-    <t>По уважительным причинам отсуствует «none» человек</t>
-  </si>
-  <si>
-    <t>«none»</t>
-  </si>
-  <si>
     <t>Показания по урону: среднее</t>
   </si>
   <si>
@@ -310,6 +304,42 @@
   <si>
     <t>13.11.25 - 20.11.25</t>
   </si>
+  <si>
+    <t>У4;П4</t>
+  </si>
+  <si>
+    <t>Вышел с гильдии во время рейда</t>
+  </si>
+  <si>
+    <t>По уважительным причинам отсуствует «0» человек</t>
+  </si>
+  <si>
+    <t>«Хорошо»</t>
+  </si>
+  <si>
+    <t>П1</t>
+  </si>
+  <si>
+    <t>П2</t>
+  </si>
+  <si>
+    <t>У1;П4</t>
+  </si>
+  <si>
+    <t>У2;П1</t>
+  </si>
+  <si>
+    <t>Дункан</t>
+  </si>
+  <si>
+    <t>Гаст</t>
+  </si>
+  <si>
+    <t>Эльфаба</t>
+  </si>
+  <si>
+    <t>Слизень</t>
+  </si>
 </sst>
 </file>
 
@@ -321,7 +351,7 @@
     <numFmt numFmtId="166" formatCode="General\ &quot;чел&quot;"/>
     <numFmt numFmtId="167" formatCode="General\ &quot;%&quot;"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,8 +409,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -456,8 +493,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -632,11 +681,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -685,61 +745,55 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -768,31 +822,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -819,45 +879,96 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="15" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="15" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -866,16 +977,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFABAB"/>
+      <color rgb="FFFFC2A3"/>
+      <color rgb="FFFFFFE1"/>
+      <color rgb="FF815F32"/>
+      <color rgb="FF90279C"/>
+      <color rgb="FFA73D1A"/>
+      <color rgb="FF50626E"/>
+      <color rgb="FFFDDCC7"/>
       <color rgb="FF2076B2"/>
-      <color rgb="FF50626E"/>
-      <color rgb="FFA73D1A"/>
-      <color rgb="FFFFABAB"/>
       <color rgb="FFD89A02"/>
-      <color rgb="FFFFC2A3"/>
-      <color rgb="FFFDDCC7"/>
-      <color rgb="FFFFFFE1"/>
-      <color rgb="FF90279C"/>
-      <color rgb="FF815F32"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1731,7 +1842,7 @@
   <dimension ref="A1:BE448"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="48" zoomScaleNormal="48" workbookViewId="0">
-      <selection activeCell="AM30" sqref="AM30"/>
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2006,10 +2117,10 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="16"/>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="K5" s="46"/>
+      <c r="K5" s="52"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -2067,8 +2178,8 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="46"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="17"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -2126,10 +2237,10 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="J7" s="47">
+      <c r="J7" s="53">
         <v>45950</v>
       </c>
-      <c r="K7" s="48"/>
+      <c r="K7" s="54"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -2243,10 +2354,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-      <c r="G9" s="51" t="s">
+      <c r="G9" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="51"/>
+      <c r="H9" s="62"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
@@ -2302,15 +2413,15 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="63"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="8"/>
       <c r="K10" s="1"/>
       <c r="L10" s="9"/>
@@ -2367,19 +2478,23 @@
       <c r="D11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="20"/>
+      <c r="E11" s="20">
+        <v>50</v>
+      </c>
       <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="19">
+        <v>189</v>
+      </c>
       <c r="H11" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="54">
+      <c r="J11" s="65">
         <v>45981</v>
       </c>
-      <c r="K11" s="54"/>
+      <c r="K11" s="65"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -2606,33 +2721,33 @@
     </row>
     <row r="15" spans="1:57" ht="110.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="58" t="s">
-        <v>60</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="23" t="s">
+      <c r="F15" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="24" t="s">
+      <c r="K15" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="L15" s="24" t="s">
+      <c r="L15" s="64" t="s">
         <v>34</v>
       </c>
       <c r="M15" s="1"/>
@@ -2683,41 +2798,41 @@
     </row>
     <row r="16" spans="1:57" ht="21" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
-      <c r="S16" s="52" t="s">
-        <v>62</v>
-      </c>
-      <c r="T16" s="52"/>
+      <c r="S16" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="T16" s="45"/>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
+      <c r="W16" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
       <c r="Z16" s="2"/>
-      <c r="AA16" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="78"/>
+      <c r="AA16" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="35"/>
       <c r="AE16" s="2"/>
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
@@ -2757,61 +2872,75 @@
       <c r="D17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57">
-        <f>E17/7</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
+      <c r="E17" s="23">
+        <v>2766</v>
+      </c>
+      <c r="F17" s="93">
+        <f>E17/6</f>
+        <v>461</v>
+      </c>
+      <c r="G17" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J17" s="91">
+        <v>18</v>
+      </c>
+      <c r="K17" s="18">
+        <v>4</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="66"/>
+      <c r="S17" s="24"/>
       <c r="T17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="V17" s="1"/>
-      <c r="W17" s="74"/>
-      <c r="X17" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y17" s="70">
+      <c r="W17" s="31"/>
+      <c r="X17" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y17" s="28">
         <v>1</v>
       </c>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB17" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB17" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC17" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="AC17" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="AD17" s="82"/>
-      <c r="AE17" s="81"/>
+      <c r="AD17" s="44"/>
+      <c r="AE17" s="38"/>
       <c r="AF17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG17" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH17" s="71"/>
-      <c r="AI17" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="AJ17" s="71"/>
+        <v>72</v>
+      </c>
+      <c r="AG17" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH17" s="43"/>
+      <c r="AI17" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ17" s="43"/>
       <c r="AK17" s="2"/>
       <c r="AL17" s="2"/>
       <c r="AM17" s="2"/>
@@ -2845,16 +2974,28 @@
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57">
+      <c r="E18" s="23">
+        <v>3099</v>
+      </c>
+      <c r="F18" s="23">
         <f t="shared" ref="F18:F40" si="0">E18/7</f>
-        <v>0</v>
-      </c>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="18"/>
+        <v>442.71428571428572</v>
+      </c>
+      <c r="G18" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="22">
+        <v>21</v>
+      </c>
+      <c r="K18" s="18">
+        <v>5</v>
+      </c>
       <c r="L18" s="18"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -2862,44 +3003,44 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="67"/>
+      <c r="S18" s="25"/>
       <c r="T18" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="V18" s="1"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y18" s="70">
+      <c r="W18" s="30"/>
+      <c r="X18" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y18" s="28">
         <v>2</v>
       </c>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AB18" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC18" s="82" t="s">
-        <v>83</v>
-      </c>
-      <c r="AD18" s="82"/>
+        <v>69</v>
+      </c>
+      <c r="AB18" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC18" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="AD18" s="44"/>
       <c r="AE18" s="2"/>
       <c r="AF18" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG18" s="71" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG18" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH18" s="43"/>
+      <c r="AI18" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="AH18" s="71"/>
-      <c r="AI18" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="AJ18" s="71"/>
+      <c r="AJ18" s="43"/>
       <c r="AK18" s="2"/>
       <c r="AL18" s="2"/>
       <c r="AM18" s="2"/>
@@ -2933,16 +3074,28 @@
       <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57">
+      <c r="E19" s="23">
+        <v>4196</v>
+      </c>
+      <c r="F19" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="18"/>
+        <v>599.42857142857144</v>
+      </c>
+      <c r="G19" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="22">
+        <v>21</v>
+      </c>
+      <c r="K19" s="18">
+        <v>5</v>
+      </c>
       <c r="L19" s="18"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -2950,44 +3103,44 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="68"/>
+      <c r="S19" s="26"/>
       <c r="T19" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="V19" s="1"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y19" s="70">
+      <c r="W19" s="33"/>
+      <c r="X19" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y19" s="28">
         <v>3</v>
       </c>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="AB19" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC19" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD19" s="82"/>
+        <v>70</v>
+      </c>
+      <c r="AB19" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC19" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD19" s="44"/>
       <c r="AE19" s="2"/>
       <c r="AF19" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG19" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH19" s="71"/>
-      <c r="AI19" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="AJ19" s="71"/>
+        <v>74</v>
+      </c>
+      <c r="AG19" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH19" s="43"/>
+      <c r="AI19" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ19" s="43"/>
       <c r="AK19" s="2"/>
       <c r="AL19" s="2"/>
       <c r="AM19" s="2"/>
@@ -3021,16 +3174,28 @@
       <c r="D20" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57">
+      <c r="E20" s="23">
+        <v>2829</v>
+      </c>
+      <c r="F20" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="56"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="56"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="18"/>
+        <v>404.14285714285717</v>
+      </c>
+      <c r="G20" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="H20" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="22">
+        <v>21</v>
+      </c>
+      <c r="K20" s="18">
+        <v>5</v>
+      </c>
       <c r="L20" s="18"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -3038,44 +3203,44 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-      <c r="S20" s="69"/>
+      <c r="S20" s="27"/>
       <c r="T20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V20" s="1"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y20" s="70">
+      <c r="W20" s="32"/>
+      <c r="X20" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y20" s="28">
         <v>4</v>
       </c>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB20" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC20" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD20" s="82"/>
-      <c r="AE20" s="81"/>
+        <v>71</v>
+      </c>
+      <c r="AB20" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC20" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD20" s="44"/>
+      <c r="AE20" s="38"/>
       <c r="AF20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG20" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="AH20" s="71"/>
-      <c r="AI20" s="71" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ20" s="71"/>
+        <v>75</v>
+      </c>
+      <c r="AG20" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH20" s="43"/>
+      <c r="AI20" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ20" s="43"/>
       <c r="AK20" s="2"/>
       <c r="AL20" s="2"/>
       <c r="AM20" s="2"/>
@@ -3109,16 +3274,28 @@
       <c r="D21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57">
+      <c r="E21" s="23">
+        <v>3742</v>
+      </c>
+      <c r="F21" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="18"/>
+        <v>534.57142857142856</v>
+      </c>
+      <c r="G21" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="22">
+        <v>21</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5</v>
+      </c>
       <c r="L21" s="18"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -3126,12 +3303,12 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="86"/>
+      <c r="S21" s="41"/>
       <c r="T21" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="V21" s="1"/>
       <c r="W21" s="2"/>
@@ -3140,8 +3317,8 @@
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
       <c r="AE21" s="2"/>
       <c r="AF21" s="2"/>
       <c r="AG21" s="2"/>
@@ -3181,29 +3358,43 @@
       <c r="D22" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="56"/>
-      <c r="H22" s="56"/>
-      <c r="I22" s="56"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
+      <c r="E22" s="94">
+        <v>1082</v>
+      </c>
+      <c r="F22" s="93">
+        <f>E22/6</f>
+        <v>180.33333333333334</v>
+      </c>
+      <c r="G22" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="H22" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="91">
+        <v>18</v>
+      </c>
+      <c r="K22" s="18">
+        <v>3</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>100</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-      <c r="S22" s="85"/>
+      <c r="S22" s="40"/>
       <c r="T22" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="U22" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="2"/>
@@ -3211,28 +3402,28 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AB22" s="2"/>
-      <c r="AC22" s="80">
+      <c r="AC22" s="37">
         <v>21</v>
       </c>
-      <c r="AD22" s="80"/>
+      <c r="AD22" s="37"/>
       <c r="AE22" s="2"/>
-      <c r="AF22" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="AG22" s="71"/>
-      <c r="AH22" s="71"/>
-      <c r="AI22" s="71"/>
-      <c r="AJ22" s="71"/>
-      <c r="AK22" s="71"/>
-      <c r="AL22" s="71"/>
-      <c r="AM22" s="84">
+      <c r="AF22" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="43"/>
+      <c r="AI22" s="43"/>
+      <c r="AJ22" s="43"/>
+      <c r="AK22" s="43"/>
+      <c r="AL22" s="43"/>
+      <c r="AM22" s="39">
         <v>1400</v>
       </c>
       <c r="AN22" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
@@ -3263,16 +3454,28 @@
       <c r="D23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57">
+      <c r="E23" s="23">
+        <v>3463</v>
+      </c>
+      <c r="F23" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="18"/>
+        <v>494.71428571428572</v>
+      </c>
+      <c r="G23" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="H23" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J23" s="22">
+        <v>21</v>
+      </c>
+      <c r="K23" s="18">
+        <v>5</v>
+      </c>
       <c r="L23" s="18"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -3293,16 +3496,16 @@
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
-      <c r="AF23" s="83" t="s">
-        <v>90</v>
-      </c>
-      <c r="AG23" s="83"/>
-      <c r="AH23" s="83"/>
-      <c r="AI23" s="83"/>
-      <c r="AJ23" s="83"/>
-      <c r="AK23" s="83"/>
-      <c r="AL23" s="83"/>
-      <c r="AM23" s="83"/>
+      <c r="AF23" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="42"/>
+      <c r="AI23" s="42"/>
+      <c r="AJ23" s="42"/>
+      <c r="AK23" s="42"/>
+      <c r="AL23" s="42"/>
+      <c r="AM23" s="42"/>
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
@@ -3333,16 +3536,28 @@
       <c r="D24" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57">
+      <c r="E24" s="23">
+        <v>1634</v>
+      </c>
+      <c r="F24" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="18"/>
+        <v>233.42857142857142</v>
+      </c>
+      <c r="G24" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J24" s="22">
+        <v>21</v>
+      </c>
+      <c r="K24" s="18">
+        <v>5</v>
+      </c>
       <c r="L24" s="18"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -3401,16 +3616,28 @@
       <c r="D25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57">
+      <c r="E25" s="23">
+        <v>4035</v>
+      </c>
+      <c r="F25" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="18"/>
+        <v>576.42857142857144</v>
+      </c>
+      <c r="G25" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="H25" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J25" s="22">
+        <v>21</v>
+      </c>
+      <c r="K25" s="18">
+        <v>5</v>
+      </c>
       <c r="L25" s="18"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -3469,17 +3696,31 @@
       <c r="D26" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
+      <c r="E26" s="23">
+        <v>2321</v>
+      </c>
+      <c r="F26" s="93">
+        <f>E26/6</f>
+        <v>386.83333333333331</v>
+      </c>
+      <c r="G26" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" s="91">
+        <v>18</v>
+      </c>
+      <c r="K26" s="18">
+        <v>4</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>97</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -3537,16 +3778,28 @@
       <c r="D27" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57">
+      <c r="E27" s="23">
+        <v>4038</v>
+      </c>
+      <c r="F27" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="18"/>
+        <v>576.85714285714289</v>
+      </c>
+      <c r="G27" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="22">
+        <v>21</v>
+      </c>
+      <c r="K27" s="18">
+        <v>5</v>
+      </c>
       <c r="L27" s="18"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -3605,17 +3858,31 @@
       <c r="D28" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
+      <c r="E28" s="23">
+        <v>2157</v>
+      </c>
+      <c r="F28" s="103">
+        <f>E28/5</f>
+        <v>431.4</v>
+      </c>
+      <c r="G28" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="H28" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="I28" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" s="90">
+        <v>15</v>
+      </c>
+      <c r="K28" s="18">
+        <v>4</v>
+      </c>
+      <c r="L28" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -3673,17 +3940,31 @@
       <c r="D29" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
+      <c r="E29" s="23">
+        <v>2035</v>
+      </c>
+      <c r="F29" s="103">
+        <f>E29/5</f>
+        <v>407</v>
+      </c>
+      <c r="G29" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="H29" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="I29" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="90">
+        <v>15</v>
+      </c>
+      <c r="K29" s="18">
+        <v>4</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>98</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -3741,16 +4022,28 @@
       <c r="D30" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57">
+      <c r="E30" s="23">
+        <v>2804</v>
+      </c>
+      <c r="F30" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="18"/>
+        <v>400.57142857142856</v>
+      </c>
+      <c r="G30" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J30" s="22">
+        <v>21</v>
+      </c>
+      <c r="K30" s="18">
+        <v>5</v>
+      </c>
       <c r="L30" s="18"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -3809,16 +4102,28 @@
       <c r="D31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57">
+      <c r="E31" s="23">
+        <v>3489</v>
+      </c>
+      <c r="F31" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="18"/>
+        <v>498.42857142857144</v>
+      </c>
+      <c r="G31" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="H31" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J31" s="22">
+        <v>21</v>
+      </c>
+      <c r="K31" s="18">
+        <v>5</v>
+      </c>
       <c r="L31" s="18"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -3877,16 +4182,28 @@
       <c r="D32" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57">
+      <c r="E32" s="23">
+        <v>3032</v>
+      </c>
+      <c r="F32" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="18"/>
+        <v>433.14285714285717</v>
+      </c>
+      <c r="G32" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" s="22">
+        <v>21</v>
+      </c>
+      <c r="K32" s="18">
+        <v>5</v>
+      </c>
       <c r="L32" s="18"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
@@ -3945,16 +4262,28 @@
       <c r="D33" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57">
+      <c r="E33" s="23">
+        <v>2780</v>
+      </c>
+      <c r="F33" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="56"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="18"/>
+        <v>397.14285714285717</v>
+      </c>
+      <c r="G33" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="I33" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J33" s="22">
+        <v>21</v>
+      </c>
+      <c r="K33" s="18">
+        <v>5</v>
+      </c>
       <c r="L33" s="18"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
@@ -4013,17 +4342,31 @@
       <c r="D34" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
+      <c r="E34" s="89">
+        <v>679</v>
+      </c>
+      <c r="F34" s="89">
+        <f>E34/3</f>
+        <v>226.33333333333334</v>
+      </c>
+      <c r="G34" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="H34" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34" s="92">
+        <v>9</v>
+      </c>
+      <c r="K34" s="18">
+        <v>2</v>
+      </c>
+      <c r="L34" s="18" t="s">
+        <v>93</v>
+      </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -4081,17 +4424,31 @@
       <c r="D35" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
+      <c r="E35" s="93">
+        <v>1214</v>
+      </c>
+      <c r="F35" s="89">
+        <f>E35/3</f>
+        <v>404.66666666666669</v>
+      </c>
+      <c r="G35" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="H35" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J35" s="92">
+        <v>9</v>
+      </c>
+      <c r="K35" s="18">
+        <v>3</v>
+      </c>
+      <c r="L35" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1"/>
@@ -4140,26 +4497,25 @@
     </row>
     <row r="36" spans="1:57" ht="21" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
-      <c r="B36" s="6">
+      <c r="B36" s="102">
         <v>20</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
+      <c r="E36" s="99" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="101"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -4217,16 +4573,28 @@
       <c r="D37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57">
+      <c r="E37" s="23">
+        <v>4404</v>
+      </c>
+      <c r="F37" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="18"/>
+        <v>629.14285714285711</v>
+      </c>
+      <c r="G37" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J37" s="22">
+        <v>21</v>
+      </c>
+      <c r="K37" s="18">
+        <v>5</v>
+      </c>
       <c r="L37" s="18"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -4285,16 +4653,28 @@
       <c r="D38" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57">
+      <c r="E38" s="23">
+        <v>3850</v>
+      </c>
+      <c r="F38" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="56"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="18"/>
+        <v>550</v>
+      </c>
+      <c r="G38" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="H38" s="97" t="s">
+        <v>101</v>
+      </c>
+      <c r="I38" s="95" t="s">
+        <v>103</v>
+      </c>
+      <c r="J38" s="22">
+        <v>21</v>
+      </c>
+      <c r="K38" s="18">
+        <v>5</v>
+      </c>
       <c r="L38" s="18"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
@@ -4353,17 +4733,25 @@
       <c r="D39" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57">
+      <c r="E39" s="23">
+        <v>0</v>
+      </c>
+      <c r="F39" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="92">
+        <v>0</v>
+      </c>
+      <c r="K39" s="88">
+        <v>2</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1"/>
@@ -4421,17 +4809,25 @@
       <c r="D40" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57">
+      <c r="E40" s="23">
+        <v>0</v>
+      </c>
+      <c r="F40" s="89">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="87"/>
+      <c r="I40" s="87"/>
+      <c r="J40" s="92">
+        <v>0</v>
+      </c>
+      <c r="K40" s="88">
+        <v>2</v>
+      </c>
+      <c r="L40" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
@@ -4489,17 +4885,25 @@
       <c r="D41" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57">
+      <c r="E41" s="23">
+        <v>0</v>
+      </c>
+      <c r="F41" s="89">
         <f>E41/7</f>
         <v>0</v>
       </c>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
+      <c r="G41" s="87"/>
+      <c r="H41" s="87"/>
+      <c r="I41" s="87"/>
+      <c r="J41" s="92">
+        <v>0</v>
+      </c>
+      <c r="K41" s="88">
+        <v>2</v>
+      </c>
+      <c r="L41" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -4912,10 +5316,10 @@
     </row>
     <row r="48" spans="1:57" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="77" t="s">
         <v>40</v>
       </c>
-      <c r="C48" s="21"/>
+      <c r="C48" s="77"/>
       <c r="D48" s="10">
         <v>25</v>
       </c>
@@ -4923,15 +5327,15 @@
         <f xml:space="preserve"> D48 / $D$48 * 100</f>
         <v>100</v>
       </c>
-      <c r="F48" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="29"/>
+      <c r="F48" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="76"/>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1"/>
@@ -4980,28 +5384,28 @@
     </row>
     <row r="49" spans="1:57" ht="21" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="77" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="21"/>
+      <c r="C49" s="77"/>
       <c r="D49" s="10">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E49" s="11">
         <f xml:space="preserve"> D49 / $D$48 * 100</f>
-        <v>100</v>
-      </c>
-      <c r="F49" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
       <c r="I49" s="14"/>
-      <c r="J49" s="32" t="s">
+      <c r="J49" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
@@ -5050,23 +5454,23 @@
     </row>
     <row r="50" spans="1:57" ht="21" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C50" s="21"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="21"/>
-      <c r="F50" s="30" t="s">
+      <c r="C50" s="77"/>
+      <c r="D50" s="77"/>
+      <c r="E50" s="77"/>
+      <c r="F50" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
       <c r="I50" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="J50" s="50"/>
-      <c r="K50" s="50"/>
-      <c r="L50" s="50"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -5115,24 +5519,26 @@
     </row>
     <row r="51" spans="1:57" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="39"/>
-      <c r="D51" s="10"/>
+      <c r="C51" s="84"/>
+      <c r="D51" s="10">
+        <v>14</v>
+      </c>
       <c r="E51" s="11">
-        <f xml:space="preserve"> D51 / $D$48 * 100</f>
-        <v>0</v>
-      </c>
-      <c r="F51" s="27" t="s">
+        <f xml:space="preserve"> D51 / $D$49 * 100</f>
+        <v>58.333333333333336</v>
+      </c>
+      <c r="F51" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
       <c r="I51" s="14"/>
-      <c r="J51" s="50"/>
-      <c r="K51" s="50"/>
-      <c r="L51" s="50"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -5181,24 +5587,26 @@
     </row>
     <row r="52" spans="1:57" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
-      <c r="B52" s="38" t="s">
+      <c r="B52" s="83" t="s">
         <v>44</v>
       </c>
-      <c r="C52" s="39"/>
-      <c r="D52" s="10"/>
+      <c r="C52" s="84"/>
+      <c r="D52" s="10">
+        <v>4</v>
+      </c>
       <c r="E52" s="11">
-        <f xml:space="preserve"> D52 / $D$48 * 100</f>
-        <v>0</v>
-      </c>
-      <c r="F52" s="30" t="s">
+        <f xml:space="preserve"> D52 / $D$49 * 100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="F52" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="50"/>
-      <c r="K52" s="50"/>
-      <c r="L52" s="50"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -5247,24 +5655,26 @@
     </row>
     <row r="53" spans="1:57" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="C53" s="39"/>
-      <c r="D53" s="10"/>
+      <c r="C53" s="84"/>
+      <c r="D53" s="10">
+        <v>2</v>
+      </c>
       <c r="E53" s="11">
-        <f t="shared" ref="E53:E54" si="1" xml:space="preserve"> D53 / $D$48 * 100</f>
-        <v>0</v>
-      </c>
-      <c r="F53" s="40"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="42"/>
-      <c r="J53" s="32" t="s">
+        <f xml:space="preserve"> D53 / $D$49 * 100</f>
+        <v>8.3333333333333321</v>
+      </c>
+      <c r="F53" s="46"/>
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="61"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -5312,22 +5722,24 @@
       <c r="BE53" s="2"/>
     </row>
     <row r="54" spans="1:57" ht="21" x14ac:dyDescent="0.35">
-      <c r="B54" s="36" t="s">
+      <c r="B54" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="10"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="10">
+        <v>4</v>
+      </c>
       <c r="E54" s="11">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F54" s="40"/>
-      <c r="G54" s="41"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
+        <f xml:space="preserve"> D54 / $D$49 * 100</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="F54" s="46"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="47"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="75"/>
+      <c r="K54" s="75"/>
+      <c r="L54" s="75"/>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -5375,25 +5787,25 @@
       <c r="BE54" s="2"/>
     </row>
     <row r="55" spans="1:57" ht="21" x14ac:dyDescent="0.35">
-      <c r="B55" s="33" t="s">
+      <c r="B55" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="34">
+      <c r="C55" s="78"/>
+      <c r="D55" s="79">
         <f>SUM(D51:D53)</f>
-        <v>0</v>
-      </c>
-      <c r="E55" s="35">
-        <f xml:space="preserve"> D55 / $D$48 * 100</f>
-        <v>0</v>
-      </c>
-      <c r="F55" s="40"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="42"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
+        <v>20</v>
+      </c>
+      <c r="E55" s="80">
+        <f xml:space="preserve"> D55 / $D$49 * 100</f>
+        <v>83.333333333333343</v>
+      </c>
+      <c r="F55" s="46"/>
+      <c r="G55" s="47"/>
+      <c r="H55" s="47"/>
+      <c r="I55" s="48"/>
+      <c r="J55" s="75"/>
+      <c r="K55" s="75"/>
+      <c r="L55" s="75"/>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -5441,17 +5853,17 @@
       <c r="BE55" s="2"/>
     </row>
     <row r="56" spans="1:57" ht="21" x14ac:dyDescent="0.35">
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="41"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
+      <c r="B56" s="78"/>
+      <c r="C56" s="78"/>
+      <c r="D56" s="79"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="47"/>
+      <c r="H56" s="47"/>
+      <c r="I56" s="48"/>
+      <c r="J56" s="75"/>
+      <c r="K56" s="75"/>
+      <c r="L56" s="75"/>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -5499,21 +5911,21 @@
       <c r="BE56" s="2"/>
     </row>
     <row r="57" spans="1:57" ht="21" x14ac:dyDescent="0.35">
-      <c r="B57" s="25" t="s">
+      <c r="B57" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="C57" s="25"/>
-      <c r="D57" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E57" s="26"/>
-      <c r="F57" s="43"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="45"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="75" t="s">
+        <v>96</v>
+      </c>
+      <c r="E57" s="75"/>
+      <c r="F57" s="49"/>
+      <c r="G57" s="50"/>
+      <c r="H57" s="50"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="75"/>
+      <c r="K57" s="75"/>
+      <c r="L57" s="75"/>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -28239,21 +28651,32 @@
       <c r="BE448" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="AF23:AM23"/>
-    <mergeCell ref="AF22:AL22"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AG20:AH20"/>
+  <mergeCells count="55">
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E36:L36"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="G15:I16"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="F48:L48"/>
+    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="J54:L57"/>
+    <mergeCell ref="B50:E50"/>
+    <mergeCell ref="B55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="S16:T16"/>
     <mergeCell ref="W16:Y16"/>
     <mergeCell ref="AA16:AC16"/>
@@ -28270,35 +28693,26 @@
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="J11:K11"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:I16"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F48:L48"/>
-    <mergeCell ref="F50:H50"/>
-    <mergeCell ref="J53:L53"/>
-    <mergeCell ref="J54:L57"/>
-    <mergeCell ref="B50:E50"/>
-    <mergeCell ref="B55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="AF23:AM23"/>
+    <mergeCell ref="AF22:AL22"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AG20:AH20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="D55" formulaRange="1"/>
+    <ignoredError sqref="F22 F26" formula="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
